--- a/NivelIntermedio/Tablas Dinamicas.xlsx
+++ b/NivelIntermedio/Tablas Dinamicas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\db\Nik Denilson\Cursos\EXCEL\NivelIntermedio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAAA9B52-B4FC-4FA9-BCFA-F14824300209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{070FF1C6-4CA5-46BB-9D78-2DF987F85312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{04911AE7-EC10-4063-A248-4E8C46A330B4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="7" xr2:uid="{04911AE7-EC10-4063-A248-4E8C46A330B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Introducción" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,18 @@
     <sheet name="TD1" sheetId="4" r:id="rId5"/>
     <sheet name="TD2" sheetId="6" r:id="rId6"/>
     <sheet name="TD3y4" sheetId="7" r:id="rId7"/>
-    <sheet name="TD5" sheetId="8" r:id="rId8"/>
+    <sheet name="Detalle1" sheetId="15" r:id="rId8"/>
+    <sheet name="Alimentos" sheetId="13" r:id="rId9"/>
+    <sheet name="Electrónica" sheetId="12" r:id="rId10"/>
+    <sheet name="Juguetes" sheetId="11" r:id="rId11"/>
+    <sheet name="Muebles" sheetId="10" r:id="rId12"/>
+    <sheet name="Ropa" sheetId="9" r:id="rId13"/>
+    <sheet name="TD5" sheetId="8" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="5" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId15"/>
+    <pivotCache cacheId="1" r:id="rId16"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,8 +44,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -47,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="354">
   <si>
     <t>Introducción a Tablas Dinámicas</t>
   </si>
@@ -1103,17 +1107,22 @@
   </si>
   <si>
     <t>% Ventas</t>
+  </si>
+  <si>
+    <t>(Todas)</t>
+  </si>
+  <si>
+    <t>Detalles para Suma de Ventas - Genero Cliente: Femenino, Familia de Productos: Alimentos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1155,6 +1164,14 @@
       <b/>
       <sz val="18"/>
       <color theme="6"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1240,7 +1257,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyBorder="1"/>
@@ -1251,6 +1268,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1260,40 +1279,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="13">
     <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
+      <numFmt numFmtId="19" formatCode="d/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -1320,121 +1321,7 @@
       <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="&quot;S/&quot;\ #,##0.00"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="34" formatCode="_-&quot;S/&quot;\ * #,##0.00_-;\-&quot;S/&quot;\ * #,##0.00_-;_-&quot;S/&quot;\ * &quot;-&quot;??_-;_-@_-"/>
@@ -4553,8 +4440,653 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="102">
+        <item x="44"/>
+        <item x="96"/>
+        <item x="2"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="76"/>
+        <item x="11"/>
+        <item x="61"/>
+        <item x="88"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="99"/>
+        <item x="41"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="66"/>
+        <item x="38"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="90"/>
+        <item x="65"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="85"/>
+        <item x="48"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="89"/>
+        <item x="73"/>
+        <item x="29"/>
+        <item x="83"/>
+        <item x="27"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="50"/>
+        <item x="92"/>
+        <item x="81"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="80"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="13"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="59"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="79"/>
+        <item x="84"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="24"/>
+        <item x="98"/>
+        <item x="20"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="82"/>
+        <item x="100"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="30"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="9" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="7">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5412E4D-7949-4C97-BFC3-6C39EE6665D8}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5412E4D-7949-4C97-BFC3-6C39EE6665D8}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A3:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -5131,7 +5663,7 @@
     <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="0">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
@@ -5148,7 +5680,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6304F195-32A3-49DE-A1C8-FF88A8A2E45F}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6304F195-32A3-49DE-A1C8-FF88A8A2E45F}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:F17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -5783,7 +6315,7 @@
     <dataField name="Mín. de Ventas" fld="13" subtotal="min" baseField="6" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="48">
+    <format dxfId="11">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5792,7 +6324,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="43">
+    <format dxfId="10">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5801,7 +6333,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="9">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -5810,7 +6342,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="21">
+    <format dxfId="8">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5833,7 +6365,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F2524B-A68A-4EB8-BB9B-D6694DAA8D15}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C6F2524B-A68A-4EB8-BB9B-D6694DAA8D15}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -6429,8 +6961,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A1:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
@@ -6542,7 +7074,646 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" numFmtId="9" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="102">
+        <item x="44"/>
+        <item x="96"/>
+        <item x="2"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="76"/>
+        <item x="11"/>
+        <item x="61"/>
+        <item x="88"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="99"/>
+        <item x="41"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="66"/>
+        <item x="38"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="90"/>
+        <item x="65"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="85"/>
+        <item x="48"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="89"/>
+        <item x="73"/>
+        <item x="29"/>
+        <item x="83"/>
+        <item x="27"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="50"/>
+        <item x="92"/>
+        <item x="81"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="80"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="13"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="59"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="79"/>
+        <item x="84"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="24"/>
+        <item x="98"/>
+        <item x="20"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="82"/>
+        <item x="100"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="30"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="9" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="6">
         <item x="1"/>
         <item x="0"/>
@@ -7050,15 +8221,18 @@
       <x/>
     </i>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="1" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
     <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
   </dataFields>
   <formats count="1">
-    <format dxfId="2">
+    <format dxfId="3">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
   </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
@@ -7068,6 +8242,1957 @@
     </ext>
   </extLst>
 </pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="102">
+        <item x="44"/>
+        <item x="96"/>
+        <item x="2"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="76"/>
+        <item x="11"/>
+        <item x="61"/>
+        <item x="88"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="99"/>
+        <item x="41"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="66"/>
+        <item x="38"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="90"/>
+        <item x="65"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="85"/>
+        <item x="48"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="89"/>
+        <item x="73"/>
+        <item x="29"/>
+        <item x="83"/>
+        <item x="27"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="50"/>
+        <item x="92"/>
+        <item x="81"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="80"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="13"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="59"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="79"/>
+        <item x="84"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="24"/>
+        <item x="98"/>
+        <item x="20"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="82"/>
+        <item x="100"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="30"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="9" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="4">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D14" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="102">
+        <item x="44"/>
+        <item x="96"/>
+        <item x="2"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="76"/>
+        <item x="11"/>
+        <item x="61"/>
+        <item x="88"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="99"/>
+        <item x="41"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="66"/>
+        <item x="38"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="90"/>
+        <item x="65"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="85"/>
+        <item x="48"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="89"/>
+        <item x="73"/>
+        <item x="29"/>
+        <item x="83"/>
+        <item x="27"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="50"/>
+        <item x="92"/>
+        <item x="81"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="80"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="13"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="59"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="79"/>
+        <item x="84"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="24"/>
+        <item x="98"/>
+        <item x="20"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="82"/>
+        <item x="100"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="30"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="9" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="5">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{871B936C-8F60-410C-B85A-3EBF9F1EC345}" name="TablaDinámica1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="18">
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0">
+      <items count="102">
+        <item x="44"/>
+        <item x="96"/>
+        <item x="2"/>
+        <item x="91"/>
+        <item x="36"/>
+        <item x="7"/>
+        <item x="76"/>
+        <item x="11"/>
+        <item x="61"/>
+        <item x="88"/>
+        <item x="10"/>
+        <item x="47"/>
+        <item x="3"/>
+        <item x="58"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="74"/>
+        <item x="54"/>
+        <item x="45"/>
+        <item x="99"/>
+        <item x="41"/>
+        <item x="56"/>
+        <item x="46"/>
+        <item x="66"/>
+        <item x="38"/>
+        <item x="32"/>
+        <item x="0"/>
+        <item x="95"/>
+        <item x="94"/>
+        <item x="90"/>
+        <item x="65"/>
+        <item x="17"/>
+        <item x="23"/>
+        <item x="52"/>
+        <item x="85"/>
+        <item x="48"/>
+        <item x="31"/>
+        <item x="42"/>
+        <item x="89"/>
+        <item x="73"/>
+        <item x="29"/>
+        <item x="83"/>
+        <item x="27"/>
+        <item x="86"/>
+        <item x="39"/>
+        <item x="35"/>
+        <item x="50"/>
+        <item x="92"/>
+        <item x="81"/>
+        <item x="19"/>
+        <item x="21"/>
+        <item x="18"/>
+        <item x="16"/>
+        <item x="80"/>
+        <item x="28"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="9"/>
+        <item x="25"/>
+        <item x="93"/>
+        <item x="87"/>
+        <item x="43"/>
+        <item x="97"/>
+        <item x="15"/>
+        <item x="14"/>
+        <item x="57"/>
+        <item x="26"/>
+        <item x="6"/>
+        <item x="69"/>
+        <item x="71"/>
+        <item x="13"/>
+        <item x="68"/>
+        <item x="70"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="8"/>
+        <item x="59"/>
+        <item x="37"/>
+        <item x="75"/>
+        <item x="79"/>
+        <item x="84"/>
+        <item x="60"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="34"/>
+        <item x="24"/>
+        <item x="98"/>
+        <item x="20"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="33"/>
+        <item x="49"/>
+        <item x="82"/>
+        <item x="100"/>
+        <item x="12"/>
+        <item x="4"/>
+        <item x="22"/>
+        <item x="30"/>
+        <item x="62"/>
+        <item x="53"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="9" outline="0" showAll="0"/>
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="16">
+        <item x="4"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="7"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="13"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" numFmtId="14" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="12">
+        <item x="5"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="3"/>
+        <item x="10"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="369">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item x="43"/>
+        <item x="44"/>
+        <item x="45"/>
+        <item x="46"/>
+        <item x="47"/>
+        <item x="48"/>
+        <item x="49"/>
+        <item x="50"/>
+        <item x="51"/>
+        <item x="52"/>
+        <item x="53"/>
+        <item x="54"/>
+        <item x="55"/>
+        <item x="56"/>
+        <item x="57"/>
+        <item x="58"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="61"/>
+        <item x="62"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="68"/>
+        <item x="69"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="76"/>
+        <item x="77"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="82"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="85"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="89"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="96"/>
+        <item x="97"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="103"/>
+        <item x="104"/>
+        <item x="105"/>
+        <item x="106"/>
+        <item x="107"/>
+        <item x="108"/>
+        <item x="109"/>
+        <item x="110"/>
+        <item x="111"/>
+        <item x="112"/>
+        <item x="113"/>
+        <item x="114"/>
+        <item x="115"/>
+        <item x="116"/>
+        <item x="117"/>
+        <item x="118"/>
+        <item x="119"/>
+        <item x="120"/>
+        <item x="121"/>
+        <item x="122"/>
+        <item x="123"/>
+        <item x="124"/>
+        <item x="125"/>
+        <item x="126"/>
+        <item x="127"/>
+        <item x="128"/>
+        <item x="129"/>
+        <item x="130"/>
+        <item x="131"/>
+        <item x="132"/>
+        <item x="133"/>
+        <item x="134"/>
+        <item x="135"/>
+        <item x="136"/>
+        <item x="137"/>
+        <item x="138"/>
+        <item x="139"/>
+        <item x="140"/>
+        <item x="141"/>
+        <item x="142"/>
+        <item x="143"/>
+        <item x="144"/>
+        <item x="145"/>
+        <item x="146"/>
+        <item x="147"/>
+        <item x="148"/>
+        <item x="149"/>
+        <item x="150"/>
+        <item x="151"/>
+        <item x="152"/>
+        <item x="153"/>
+        <item x="154"/>
+        <item x="155"/>
+        <item x="156"/>
+        <item x="157"/>
+        <item x="158"/>
+        <item x="159"/>
+        <item x="160"/>
+        <item x="161"/>
+        <item x="162"/>
+        <item x="163"/>
+        <item x="164"/>
+        <item x="165"/>
+        <item x="166"/>
+        <item x="167"/>
+        <item x="168"/>
+        <item x="169"/>
+        <item x="170"/>
+        <item x="171"/>
+        <item x="172"/>
+        <item x="173"/>
+        <item x="174"/>
+        <item x="175"/>
+        <item x="176"/>
+        <item x="177"/>
+        <item x="178"/>
+        <item x="179"/>
+        <item x="180"/>
+        <item x="181"/>
+        <item x="182"/>
+        <item x="183"/>
+        <item x="184"/>
+        <item x="185"/>
+        <item x="186"/>
+        <item x="187"/>
+        <item x="188"/>
+        <item x="189"/>
+        <item x="190"/>
+        <item x="191"/>
+        <item x="192"/>
+        <item x="193"/>
+        <item x="194"/>
+        <item x="195"/>
+        <item x="196"/>
+        <item x="197"/>
+        <item x="198"/>
+        <item x="199"/>
+        <item x="200"/>
+        <item x="201"/>
+        <item x="202"/>
+        <item x="203"/>
+        <item x="204"/>
+        <item x="205"/>
+        <item x="206"/>
+        <item x="207"/>
+        <item x="208"/>
+        <item x="209"/>
+        <item x="210"/>
+        <item x="211"/>
+        <item x="212"/>
+        <item x="213"/>
+        <item x="214"/>
+        <item x="215"/>
+        <item x="216"/>
+        <item x="217"/>
+        <item x="218"/>
+        <item x="219"/>
+        <item x="220"/>
+        <item x="221"/>
+        <item x="222"/>
+        <item x="223"/>
+        <item x="224"/>
+        <item x="225"/>
+        <item x="226"/>
+        <item x="227"/>
+        <item x="228"/>
+        <item x="229"/>
+        <item x="230"/>
+        <item x="231"/>
+        <item x="232"/>
+        <item x="233"/>
+        <item x="234"/>
+        <item x="235"/>
+        <item x="236"/>
+        <item x="237"/>
+        <item x="238"/>
+        <item x="239"/>
+        <item x="240"/>
+        <item x="241"/>
+        <item x="242"/>
+        <item x="243"/>
+        <item x="244"/>
+        <item x="245"/>
+        <item x="246"/>
+        <item x="247"/>
+        <item x="248"/>
+        <item x="249"/>
+        <item x="250"/>
+        <item x="251"/>
+        <item x="252"/>
+        <item x="253"/>
+        <item x="254"/>
+        <item x="255"/>
+        <item x="256"/>
+        <item x="257"/>
+        <item x="258"/>
+        <item x="259"/>
+        <item x="260"/>
+        <item x="261"/>
+        <item x="262"/>
+        <item x="263"/>
+        <item x="264"/>
+        <item x="265"/>
+        <item x="266"/>
+        <item x="267"/>
+        <item x="268"/>
+        <item x="269"/>
+        <item x="270"/>
+        <item x="271"/>
+        <item x="272"/>
+        <item x="273"/>
+        <item x="274"/>
+        <item x="275"/>
+        <item x="276"/>
+        <item x="277"/>
+        <item x="278"/>
+        <item x="279"/>
+        <item x="280"/>
+        <item x="281"/>
+        <item x="282"/>
+        <item x="283"/>
+        <item x="284"/>
+        <item x="285"/>
+        <item x="286"/>
+        <item x="287"/>
+        <item x="288"/>
+        <item x="289"/>
+        <item x="290"/>
+        <item x="291"/>
+        <item x="292"/>
+        <item x="293"/>
+        <item x="294"/>
+        <item x="295"/>
+        <item x="296"/>
+        <item x="297"/>
+        <item x="298"/>
+        <item x="299"/>
+        <item x="300"/>
+        <item x="301"/>
+        <item x="302"/>
+        <item x="303"/>
+        <item x="304"/>
+        <item x="305"/>
+        <item x="306"/>
+        <item x="307"/>
+        <item x="308"/>
+        <item x="309"/>
+        <item x="310"/>
+        <item x="311"/>
+        <item x="312"/>
+        <item x="313"/>
+        <item x="314"/>
+        <item x="315"/>
+        <item x="316"/>
+        <item x="317"/>
+        <item x="318"/>
+        <item x="319"/>
+        <item x="320"/>
+        <item x="321"/>
+        <item x="322"/>
+        <item x="323"/>
+        <item x="324"/>
+        <item x="325"/>
+        <item x="326"/>
+        <item x="327"/>
+        <item x="328"/>
+        <item x="329"/>
+        <item x="330"/>
+        <item x="331"/>
+        <item x="332"/>
+        <item x="333"/>
+        <item x="334"/>
+        <item x="335"/>
+        <item x="336"/>
+        <item x="337"/>
+        <item x="338"/>
+        <item x="339"/>
+        <item x="340"/>
+        <item x="341"/>
+        <item x="342"/>
+        <item x="343"/>
+        <item x="344"/>
+        <item x="345"/>
+        <item x="346"/>
+        <item x="347"/>
+        <item x="348"/>
+        <item x="349"/>
+        <item x="350"/>
+        <item x="351"/>
+        <item x="352"/>
+        <item x="353"/>
+        <item x="354"/>
+        <item x="355"/>
+        <item x="356"/>
+        <item x="357"/>
+        <item x="358"/>
+        <item x="359"/>
+        <item x="360"/>
+        <item x="361"/>
+        <item x="362"/>
+        <item x="363"/>
+        <item x="364"/>
+        <item x="365"/>
+        <item x="366"/>
+        <item x="367"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="15">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="12"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="8"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="5" item="4" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Ventas" fld="13" baseField="0" baseItem="0" numFmtId="44"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium13" showRowHeaders="1" showColHeaders="1" showRowStripes="1" showColStripes="1" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C7E939BD-8715-4FFC-B400-FA0C88A43EDF}" name="Tabla2" displayName="Tabla2" ref="A3:P12" totalsRowShown="0">
+  <autoFilter ref="A3:P12" xr:uid="{C7E939BD-8715-4FFC-B400-FA0C88A43EDF}"/>
+  <tableColumns count="16">
+    <tableColumn id="1" xr3:uid="{D427C984-5E21-4EAC-A8FA-15EB6DD311EF}" name="ID Factura"/>
+    <tableColumn id="2" xr3:uid="{E51B8121-2058-4EE7-8A9C-9C4472DEC85E}" name="Fecha de Venta" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{DD1232A5-2337-40E7-AC55-43BAC2862479}" name="Unidades"/>
+    <tableColumn id="4" xr3:uid="{8A50F8AD-6BD8-4CA0-8CFA-F807609C6054}" name="Precio"/>
+    <tableColumn id="5" xr3:uid="{B7541477-36D3-4C75-9299-0D74FF9E999F}" name="% Costo"/>
+    <tableColumn id="6" xr3:uid="{0AE7BC56-D8CF-4C9F-8434-BE6C642BB55A}" name="Familia de Productos"/>
+    <tableColumn id="7" xr3:uid="{BA1A115A-ECAA-4F7C-9F97-E2DDB84F9587}" name="Producto"/>
+    <tableColumn id="8" xr3:uid="{D44A21ED-3B7F-4AFB-A9D1-97F4A4841209}" name="Nombre Cliente"/>
+    <tableColumn id="9" xr3:uid="{EC0672BD-5B75-4F03-8E10-956362EDFBA0}" name="Genero Cliente"/>
+    <tableColumn id="10" xr3:uid="{32E9DC79-0B61-4A46-ADC4-3096ACDBC204}" name="Vendedor"/>
+    <tableColumn id="11" xr3:uid="{376E0AAF-9099-4C60-A7D9-B0CE38A0BD72}" name="Fecha de Entrega" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{76038164-A3EB-4F0D-A964-48F6AA9EA30A}" name="Ciudad"/>
+    <tableColumn id="13" xr3:uid="{819F7E29-C226-42F9-BD54-E6704EEF79E7}" name="País"/>
+    <tableColumn id="14" xr3:uid="{7F476872-BCE7-4689-8CD2-15D41627BF9D}" name="Ventas"/>
+    <tableColumn id="15" xr3:uid="{D5796708-2870-406D-87E1-218860614DF1}" name="Costo"/>
+    <tableColumn id="16" xr3:uid="{5E46236D-CA62-4A0A-985C-AEE5569F9D24}" name="Ganancia"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7420,15 +10545,15 @@
     <row r="2" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -7456,10 +10581,10 @@
       <c r="P3" s="1"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="10"/>
+      <c r="B6" s="12"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
@@ -7574,6 +10699,1015 @@
     <mergeCell ref="C2:I2"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFFA48B7-C2F9-41BD-825A-E9194EAF736E}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>741.62</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2705.55</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3447.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3594.82</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>3594.82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8">
+        <v>3463.2000000000003</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2431.91</v>
+      </c>
+      <c r="D7" s="8">
+        <v>5895.1100000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>6215.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>6215.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8">
+        <v>6320.96</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4078.05</v>
+      </c>
+      <c r="D9" s="8">
+        <v>10399.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8363.15</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>8363.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8">
+        <v>5617.37</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>5617.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8">
+        <v>9638.81</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9638.81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8">
+        <v>4829.76</v>
+      </c>
+      <c r="C13" s="8">
+        <v>8643.7999999999993</v>
+      </c>
+      <c r="D13" s="8">
+        <v>13473.56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="8">
+        <v>7672.2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1361.9900000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9034.19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="8">
+        <v>4673.6400000000003</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>4673.6400000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45276.719999999994</v>
+      </c>
+      <c r="C16" s="8">
+        <v>35075.609999999993</v>
+      </c>
+      <c r="D16" s="8">
+        <v>80352.33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B4C81FD-65AD-4531-912C-3BE8EEBB1B46}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2612.58</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>2612.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="8">
+        <v>8452.26</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3048.72</v>
+      </c>
+      <c r="D6" s="8">
+        <v>11500.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="8">
+        <v>10706.63</v>
+      </c>
+      <c r="C7" s="8">
+        <v>409.78</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11116.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>1764.5</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1764.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>289.44</v>
+      </c>
+      <c r="C9" s="8">
+        <v>8927.7000000000007</v>
+      </c>
+      <c r="D9" s="8">
+        <v>9217.1400000000012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="8">
+        <v>4022.06</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>4022.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
+        <v>2246.89</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2246.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8">
+        <v>6579.36</v>
+      </c>
+      <c r="C12" s="8">
+        <v>4104.3</v>
+      </c>
+      <c r="D12" s="8">
+        <v>10683.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="8">
+        <v>2486.54</v>
+      </c>
+      <c r="C13" s="8">
+        <v>3659.34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>6145.88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2738.26</v>
+      </c>
+      <c r="C14" s="8">
+        <v>8593.1200000000008</v>
+      </c>
+      <c r="D14" s="8">
+        <v>11331.380000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="8">
+        <v>37887.130000000005</v>
+      </c>
+      <c r="C15" s="8">
+        <v>32754.35</v>
+      </c>
+      <c r="D15" s="8">
+        <v>70641.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88006194-AA4D-4F42-A392-49DB564871E0}">
+  <dimension ref="A1:D14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>633.25</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9526.2200000000012</v>
+      </c>
+      <c r="D5" s="8">
+        <v>10159.470000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8">
+        <v>7069.33</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>7069.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8">
+        <v>4160.2</v>
+      </c>
+      <c r="C7" s="8">
+        <v>8071.85</v>
+      </c>
+      <c r="D7" s="8">
+        <v>12232.05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>5267.52</v>
+      </c>
+      <c r="D8" s="8">
+        <v>5267.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7321.88</v>
+      </c>
+      <c r="C9" s="8">
+        <v>9436.4500000000007</v>
+      </c>
+      <c r="D9" s="8">
+        <v>16758.330000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="8">
+        <v>5790.77</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1464.6</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7255.3700000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="8">
+        <v>7400.8099999999995</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>7400.8099999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="8">
+        <v>4551.8999999999996</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>4551.8999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8">
+        <v>5546</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="8">
+        <v>36928.14</v>
+      </c>
+      <c r="C14" s="8">
+        <v>39312.639999999999</v>
+      </c>
+      <c r="D14" s="8">
+        <v>76240.78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBDCD97C-10BE-4287-BB9E-06D247C02828}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>797.59999999999991</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1179.81</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1977.4099999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>5425.84</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5425.84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>2848.1</v>
+      </c>
+      <c r="D7" s="8">
+        <v>2848.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8">
+        <v>2465.16</v>
+      </c>
+      <c r="C8" s="8">
+        <v>371.47</v>
+      </c>
+      <c r="D8" s="8">
+        <v>2836.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8">
+        <v>2356.7400000000002</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>2356.7400000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>7510.73</v>
+      </c>
+      <c r="D10" s="8">
+        <v>7510.73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8">
+        <v>1395.36</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1395.36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3396.5099999999998</v>
+      </c>
+      <c r="C12" s="8">
+        <v>282.14999999999998</v>
+      </c>
+      <c r="D12" s="8">
+        <v>3678.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1566.4399999999998</v>
+      </c>
+      <c r="C13" s="8">
+        <v>4403.9799999999996</v>
+      </c>
+      <c r="D13" s="8">
+        <v>5970.4199999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="8">
+        <v>2320.83</v>
+      </c>
+      <c r="C14" s="8">
+        <v>6865.9500000000007</v>
+      </c>
+      <c r="D14" s="8">
+        <v>9186.7800000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="8">
+        <v>6587.4600000000009</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1451.84</v>
+      </c>
+      <c r="D15" s="8">
+        <v>8039.3000000000011</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>19490.740000000002</v>
+      </c>
+      <c r="C16" s="8">
+        <v>31735.23</v>
+      </c>
+      <c r="D16" s="8">
+        <v>51225.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56A9AEF-E211-4159-80AD-75F71D6FCC03}">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A15"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="3" previousRow="3" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="12" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2172.4700000000003</v>
+      </c>
+      <c r="C5" s="8">
+        <v>14501.759999999998</v>
+      </c>
+      <c r="D5" s="8">
+        <v>16674.23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="8">
+        <v>13276.73</v>
+      </c>
+      <c r="C6" s="8">
+        <v>10566.43</v>
+      </c>
+      <c r="D6" s="8">
+        <v>23843.16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="8">
+        <v>21852.769999999997</v>
+      </c>
+      <c r="C7" s="8">
+        <v>16400.580000000002</v>
+      </c>
+      <c r="D7" s="8">
+        <v>38253.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="8">
+        <v>13171.79</v>
+      </c>
+      <c r="C8" s="8">
+        <v>12264.27</v>
+      </c>
+      <c r="D8" s="8">
+        <v>25436.06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="8">
+        <v>19078.109999999997</v>
+      </c>
+      <c r="C9" s="8">
+        <v>21234.75</v>
+      </c>
+      <c r="D9" s="8">
+        <v>40312.86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="8">
+        <v>10517.46</v>
+      </c>
+      <c r="C10" s="8">
+        <v>16680.28</v>
+      </c>
+      <c r="D10" s="8">
+        <v>27197.739999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="8">
+        <v>15430.2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2859.96</v>
+      </c>
+      <c r="D11" s="8">
+        <v>18290.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10797.32</v>
+      </c>
+      <c r="C12" s="8">
+        <v>15904.279999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>26701.599999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="8">
+        <v>21374.900000000005</v>
+      </c>
+      <c r="C13" s="8">
+        <v>23655.279999999995</v>
+      </c>
+      <c r="D13" s="8">
+        <v>45030.18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="8">
+        <v>21022.13</v>
+      </c>
+      <c r="C14" s="8">
+        <v>13063.430000000002</v>
+      </c>
+      <c r="D14" s="8">
+        <v>34085.560000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="8">
+        <v>15517.520000000002</v>
+      </c>
+      <c r="C15" s="8">
+        <v>15590.96</v>
+      </c>
+      <c r="D15" s="8">
+        <v>31108.480000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="8">
+        <v>164211.39999999997</v>
+      </c>
+      <c r="C16" s="8">
+        <v>162721.97999999998</v>
+      </c>
+      <c r="D16" s="8">
+        <v>326933.37999999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7613,8 +11747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947D7313-DDA6-4365-873A-B2343665B0D6}">
   <dimension ref="A2:P124"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D12" sqref="A4:P124"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14067,7 +18201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270C7E23-74CC-4B00-84DB-13028F8829C1}">
   <dimension ref="A3:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -14091,7 +18225,7 @@
       <c r="A4" t="s">
         <v>336</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>19482.18</v>
       </c>
     </row>
@@ -14099,7 +18233,7 @@
       <c r="A5" t="s">
         <v>337</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>16284.600000000002</v>
       </c>
     </row>
@@ -14107,7 +18241,7 @@
       <c r="A6" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>40072.640000000007</v>
       </c>
     </row>
@@ -14115,7 +18249,7 @@
       <c r="A7" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>17186.599999999999</v>
       </c>
     </row>
@@ -14123,7 +18257,7 @@
       <c r="A8" t="s">
         <v>340</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>39524.150000000009</v>
       </c>
     </row>
@@ -14131,7 +18265,7 @@
       <c r="A9" t="s">
         <v>335</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>23447.91</v>
       </c>
     </row>
@@ -14139,7 +18273,7 @@
       <c r="A10" t="s">
         <v>341</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>35329</v>
       </c>
     </row>
@@ -14147,7 +18281,7 @@
       <c r="A11" t="s">
         <v>342</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>20736.429999999997</v>
       </c>
     </row>
@@ -14155,7 +18289,7 @@
       <c r="A12" t="s">
         <v>343</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>26432.44</v>
       </c>
     </row>
@@ -14163,7 +18297,7 @@
       <c r="A13" t="s">
         <v>344</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>29877.43</v>
       </c>
     </row>
@@ -14171,7 +18305,7 @@
       <c r="A14" t="s">
         <v>345</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>26892.640000000007</v>
       </c>
     </row>
@@ -14179,7 +18313,7 @@
       <c r="A15" t="s">
         <v>346</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>31667.360000000001</v>
       </c>
     </row>
@@ -14187,7 +18321,7 @@
       <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>326933.38000000006</v>
       </c>
     </row>
@@ -14238,19 +18372,19 @@
       <c r="A2" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="8">
         <v>4007.99</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="9">
         <v>1.2259347760696692E-2</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2">
         <v>22</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="8">
         <v>1179.81</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="8">
         <v>371.47</v>
       </c>
     </row>
@@ -14258,19 +18392,19 @@
       <c r="A3" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="8">
         <v>7877.59</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="9">
         <v>2.4095398273495355E-2</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3">
         <v>36</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="8">
         <v>5362.05</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="8">
         <v>614.46</v>
       </c>
     </row>
@@ -14278,19 +18412,19 @@
       <c r="A4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="8">
         <v>13972.210000000001</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="9">
         <v>4.2737177831153259E-2</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4">
         <v>77</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="8">
         <v>4083.6000000000004</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="8">
         <v>532.4</v>
       </c>
     </row>
@@ -14298,19 +18432,19 @@
       <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="8">
         <v>15998.62</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="9">
         <v>4.8935413080181664E-2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5">
         <v>75</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>4577.4000000000005</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>446.95</v>
       </c>
     </row>
@@ -14318,19 +18452,19 @@
       <c r="A6" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="8">
         <v>16937.77</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="9">
         <v>5.1808016666881805E-2</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6">
         <v>53</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>5955.75</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>985.76</v>
       </c>
     </row>
@@ -14338,19 +18472,19 @@
       <c r="A7" t="s">
         <v>139</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="8">
         <v>17562.84</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="9">
         <v>5.3719935235735192E-2</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7">
         <v>83</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>7354</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>241.85</v>
       </c>
     </row>
@@ -14358,19 +18492,19 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="8">
         <v>21517.89</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="9">
         <v>6.5817353982025331E-2</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8">
         <v>67</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="8">
         <v>7672.2</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="8">
         <v>741.62</v>
       </c>
     </row>
@@ -14378,19 +18512,19 @@
       <c r="A9" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="8">
         <v>21762</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="9">
         <v>6.6564019862395213E-2</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9">
         <v>83</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="8">
         <v>6579.36</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="8">
         <v>100.78</v>
       </c>
     </row>
@@ -14398,19 +18532,19 @@
       <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>22122.27</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="9">
         <v>6.7665987486502613E-2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10">
         <v>97</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="8">
         <v>6587.4600000000009</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="8">
         <v>1137.3599999999999</v>
       </c>
     </row>
@@ -14418,19 +18552,19 @@
       <c r="A11" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>25095.710000000003</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>7.6760929092037064E-2</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11">
         <v>87</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="8">
         <v>6865.9500000000007</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="8">
         <v>77.550000000000011</v>
       </c>
     </row>
@@ -14438,19 +18572,19 @@
       <c r="A12" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="8">
         <v>27295.809999999998</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="9">
         <v>8.3490434656748727E-2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12">
         <v>112</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>8363.15</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>370.37</v>
       </c>
     </row>
@@ -14458,19 +18592,19 @@
       <c r="A13" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="8">
         <v>31538.63</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="9">
         <v>9.6468063310023611E-2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13">
         <v>139</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="8">
         <v>4917.5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="8">
         <v>533.54</v>
       </c>
     </row>
@@ -14478,19 +18612,19 @@
       <c r="A14" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>32142.31</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="9">
         <v>9.8314555705507969E-2</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14">
         <v>130</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="8">
         <v>7069.33</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="8">
         <v>344.72</v>
       </c>
     </row>
@@ -14498,19 +18632,19 @@
       <c r="A15" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="8">
         <v>32880.86</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="9">
         <v>0.10057357862938317</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15">
         <v>101</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="8">
         <v>8452.26</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="8">
         <v>289.44</v>
       </c>
     </row>
@@ -14518,19 +18652,19 @@
       <c r="A16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="8">
         <v>36220.879999999997</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="9">
         <v>0.1107897884272325</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16">
         <v>129</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="8">
         <v>7186.75</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="8">
         <v>1012.6</v>
       </c>
     </row>
@@ -14538,19 +18672,19 @@
       <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="8">
         <v>326933.37999999995</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="9">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17">
         <v>1291</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="8">
         <v>8452.26</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="8">
         <v>77.550000000000011</v>
       </c>
     </row>
@@ -14586,7 +18720,7 @@
       <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2">
         <v>27295.809999999998</v>
       </c>
     </row>
@@ -14594,7 +18728,7 @@
       <c r="A3" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3">
         <v>32142.31</v>
       </c>
     </row>
@@ -14602,7 +18736,7 @@
       <c r="A4" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4">
         <v>32880.86</v>
       </c>
     </row>
@@ -14610,7 +18744,7 @@
       <c r="A5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5">
         <v>36220.879999999997</v>
       </c>
     </row>
@@ -14618,7 +18752,7 @@
       <c r="A6" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6">
         <v>31538.63</v>
       </c>
     </row>
@@ -14626,7 +18760,7 @@
       <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7">
         <v>160078.49</v>
       </c>
     </row>
@@ -14636,216 +18770,714 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E56A9AEF-E211-4159-80AD-75F71D6FCC03}">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A567040-2439-409E-8DD7-B0303632B7F0}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>6159</v>
+      </c>
+      <c r="B4" s="4">
+        <v>45597</v>
+      </c>
+      <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>339.83</v>
+      </c>
+      <c r="E4">
+        <v>0.41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>193</v>
+      </c>
+      <c r="H4" t="s">
+        <v>221</v>
+      </c>
+      <c r="I4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="4">
+        <v>45609</v>
+      </c>
+      <c r="L4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4">
+        <v>5777.11</v>
+      </c>
+      <c r="O4">
+        <v>2368.6150999999995</v>
+      </c>
+      <c r="P4">
+        <v>3408.4949000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5694</v>
+      </c>
+      <c r="B5" s="4">
+        <v>45501</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>439.79</v>
+      </c>
+      <c r="E5">
+        <v>0.38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" t="s">
+        <v>310</v>
+      </c>
+      <c r="I5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" t="s">
+        <v>311</v>
+      </c>
+      <c r="K5" s="4">
+        <v>45527</v>
+      </c>
+      <c r="L5" t="s">
+        <v>96</v>
+      </c>
+      <c r="M5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N5">
+        <v>3078.53</v>
+      </c>
+      <c r="O5">
+        <v>1169.8414</v>
+      </c>
+      <c r="P5">
+        <v>1908.6886000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1937</v>
+      </c>
+      <c r="B6" s="4">
+        <v>45377</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>266.41000000000003</v>
+      </c>
+      <c r="E6">
+        <v>0.32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" t="s">
+        <v>235</v>
+      </c>
+      <c r="I6" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" t="s">
+        <v>236</v>
+      </c>
+      <c r="K6" s="4">
+        <v>45382</v>
+      </c>
+      <c r="L6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M6" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6">
+        <v>1864.8700000000001</v>
+      </c>
+      <c r="O6">
+        <v>596.75840000000005</v>
+      </c>
+      <c r="P6">
+        <v>1268.1116000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1522</v>
+      </c>
+      <c r="B7" s="4">
+        <v>45418</v>
+      </c>
+      <c r="C7">
+        <v>20</v>
+      </c>
+      <c r="D7">
+        <v>115.46</v>
+      </c>
+      <c r="E7">
+        <v>0.48</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H7" t="s">
+        <v>254</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>255</v>
+      </c>
+      <c r="K7" s="4">
+        <v>45419</v>
+      </c>
+      <c r="L7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7">
+        <v>2309.1999999999998</v>
+      </c>
+      <c r="O7">
+        <v>1108.4159999999999</v>
+      </c>
+      <c r="P7">
+        <v>1200.7839999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4141</v>
+      </c>
+      <c r="B8" s="4">
+        <v>45431</v>
+      </c>
+      <c r="C8">
+        <v>19</v>
+      </c>
+      <c r="D8">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="E8">
+        <v>0.19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" t="s">
+        <v>140</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
+        <v>141</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45436</v>
+      </c>
+      <c r="L8" t="s">
+        <v>117</v>
+      </c>
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8">
+        <v>1538.2399999999998</v>
+      </c>
+      <c r="O8">
+        <v>292.26559999999995</v>
+      </c>
+      <c r="P8">
+        <v>1245.9743999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>4800</v>
+      </c>
+      <c r="B9" s="4">
+        <v>45358</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>148.57</v>
+      </c>
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4">
+        <v>45375</v>
+      </c>
+      <c r="L9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9">
+        <v>1188.56</v>
+      </c>
+      <c r="O9">
+        <v>166.39840000000001</v>
+      </c>
+      <c r="P9">
+        <v>1022.1615999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2982</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45371</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>367.7</v>
+      </c>
+      <c r="E10">
+        <v>0.42</v>
+      </c>
+      <c r="F10" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" t="s">
+        <v>212</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="4">
+        <v>45387</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>7354</v>
+      </c>
+      <c r="O10">
+        <v>3088.68</v>
+      </c>
+      <c r="P10">
+        <v>4265.32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>6009</v>
+      </c>
+      <c r="B11" s="4">
+        <v>45560</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>123.22</v>
+      </c>
+      <c r="E11">
+        <v>0.39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" t="s">
+        <v>193</v>
+      </c>
+      <c r="H11" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="s">
+        <v>292</v>
+      </c>
+      <c r="K11" s="4">
+        <v>45571</v>
+      </c>
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+      <c r="M11" t="s">
+        <v>76</v>
+      </c>
+      <c r="N11">
+        <v>985.76</v>
+      </c>
+      <c r="O11">
+        <v>384.44639999999998</v>
+      </c>
+      <c r="P11">
+        <v>601.31359999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>5948</v>
+      </c>
+      <c r="B12" s="4">
+        <v>45379</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>53.24</v>
+      </c>
+      <c r="E12">
+        <v>0.32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="4">
+        <v>45407</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="s">
+        <v>76</v>
+      </c>
+      <c r="N12">
+        <v>532.4</v>
+      </c>
+      <c r="O12">
+        <v>170.36799999999999</v>
+      </c>
+      <c r="P12">
+        <v>362.03199999999998</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED349DA2-FDE7-4386-A48E-0CE9BCAA3AF6}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C4" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="12">
-        <v>2172.4700000000003</v>
-      </c>
-      <c r="C3" s="12">
-        <v>14501.759999999998</v>
-      </c>
-      <c r="D3" s="12">
-        <v>16674.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="12">
-        <v>13276.73</v>
-      </c>
-      <c r="C4" s="12">
-        <v>10566.43</v>
-      </c>
-      <c r="D4" s="12">
-        <v>23843.16</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="12">
-        <v>21852.769999999997</v>
-      </c>
-      <c r="C5" s="12">
-        <v>16400.580000000002</v>
-      </c>
-      <c r="D5" s="12">
-        <v>38253.35</v>
+        <v>64</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>1090.18</v>
+      </c>
+      <c r="D5" s="8">
+        <v>1090.18</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="12">
-        <v>13171.79</v>
-      </c>
-      <c r="C6" s="12">
-        <v>12264.27</v>
-      </c>
-      <c r="D6" s="12">
-        <v>25436.06</v>
+        <v>87</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>5140.59</v>
+      </c>
+      <c r="D6" s="8">
+        <v>5140.59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="12">
-        <v>19078.109999999997</v>
-      </c>
-      <c r="C7" s="12">
-        <v>21234.75</v>
-      </c>
-      <c r="D7" s="12">
-        <v>40312.86</v>
+        <v>34</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5777.11</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>5777.11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="12">
-        <v>10517.46</v>
-      </c>
-      <c r="C8" s="12">
-        <v>16680.28</v>
-      </c>
-      <c r="D8" s="12">
-        <v>27197.739999999998</v>
+        <v>97</v>
+      </c>
+      <c r="B8" s="8">
+        <v>3078.53</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5955.75</v>
+      </c>
+      <c r="D8" s="8">
+        <v>9034.2800000000007</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" s="12">
-        <v>15430.2</v>
-      </c>
-      <c r="C9" s="12">
-        <v>2859.96</v>
-      </c>
-      <c r="D9" s="12">
-        <v>18290.16</v>
+        <v>53</v>
+      </c>
+      <c r="B9" s="8">
+        <v>1864.8700000000001</v>
+      </c>
+      <c r="C9" s="8">
+        <v>241.85</v>
+      </c>
+      <c r="D9" s="8">
+        <v>2106.7200000000003</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="12">
-        <v>10797.32</v>
-      </c>
-      <c r="C10" s="12">
-        <v>15904.279999999999</v>
-      </c>
-      <c r="D10" s="12">
-        <v>26701.599999999999</v>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8">
+        <v>3736.43</v>
+      </c>
+      <c r="D10" s="8">
+        <v>3736.43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="12">
-        <v>21374.900000000005</v>
-      </c>
-      <c r="C11" s="12">
-        <v>23655.279999999995</v>
-      </c>
-      <c r="D11" s="12">
-        <v>45030.18</v>
+      <c r="B11" s="8">
+        <v>3847.4399999999996</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6503.2000000000007</v>
+      </c>
+      <c r="D11" s="8">
+        <v>10350.64</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="12">
-        <v>21022.13</v>
-      </c>
-      <c r="C12" s="12">
-        <v>13063.430000000002</v>
-      </c>
-      <c r="D12" s="12">
-        <v>34085.560000000005</v>
+      <c r="B12" s="8">
+        <v>8542.56</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1176.1499999999999</v>
+      </c>
+      <c r="D12" s="8">
+        <v>9718.7099999999991</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="12">
-        <v>15517.520000000002</v>
-      </c>
-      <c r="C13" s="12">
-        <v>15590.96</v>
-      </c>
-      <c r="D13" s="12">
-        <v>31108.480000000003</v>
+      <c r="B13" s="8">
+        <v>1518.1599999999999</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>1518.1599999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="12">
-        <v>164211.39999999997</v>
-      </c>
-      <c r="C14" s="12">
-        <v>162721.97999999998</v>
-      </c>
-      <c r="D14" s="12">
-        <v>326933.37999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
+      <c r="B14" s="8">
+        <v>24628.670000000002</v>
+      </c>
+      <c r="C14" s="8">
+        <v>23844.15</v>
+      </c>
+      <c r="D14" s="8">
+        <v>48472.820000000007</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
